--- a/Ananse0/Akan.xlsx
+++ b/Ananse0/Akan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0BBA445-27D7-476C-98AC-20BC49FDAA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD7B98-5CBD-4573-9E36-FB66A89492AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="2655" windowWidth="12735" windowHeight="11055" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27120" yWindow="5835" windowWidth="26310" windowHeight="7725" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Learned" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Simple Layman" sheetId="4" r:id="rId4"/>
     <sheet name="Simple" sheetId="5" r:id="rId5"/>
     <sheet name="Simple Preschool" sheetId="6" r:id="rId6"/>
-    <sheet name="Preschool " sheetId="7" r:id="rId7"/>
+    <sheet name="Preschool" sheetId="7" r:id="rId7"/>
     <sheet name="PrePreschool" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -5734,7 +5734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6187,7 +6189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
